--- a/data/pca/factorExposure/factorExposure_2018-02-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.006127062704432072</v>
+        <v>0.007837267204432945</v>
       </c>
       <c r="C2">
-        <v>-0.006530225318409972</v>
+        <v>-0.02190754939069131</v>
       </c>
       <c r="D2">
-        <v>0.02744757619239891</v>
+        <v>0.02589698965131133</v>
       </c>
       <c r="E2">
-        <v>-0.04323487463882178</v>
+        <v>-0.01247460433821687</v>
       </c>
       <c r="F2">
-        <v>0.05358044198869731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.001751423806239722</v>
+      </c>
+      <c r="G2">
+        <v>-0.002921474788114076</v>
+      </c>
+      <c r="H2">
+        <v>0.03061886189181218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.07090207585154594</v>
+        <v>0.05049841692978006</v>
       </c>
       <c r="C3">
-        <v>-0.006045502962291126</v>
+        <v>-0.07914453594948775</v>
       </c>
       <c r="D3">
-        <v>-0.007006915321743151</v>
+        <v>0.00983220425864695</v>
       </c>
       <c r="E3">
-        <v>-0.1543214222411188</v>
+        <v>-0.05431695505145832</v>
       </c>
       <c r="F3">
-        <v>0.2498539435245571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.02767085744866766</v>
+      </c>
+      <c r="G3">
+        <v>-0.06699429462882336</v>
+      </c>
+      <c r="H3">
+        <v>0.1130445004165619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03772119870300578</v>
+        <v>0.03432553428737917</v>
       </c>
       <c r="C4">
-        <v>0.00921632343639831</v>
+        <v>-0.06447554014345491</v>
       </c>
       <c r="D4">
-        <v>0.03056176794000021</v>
+        <v>0.02065105308344125</v>
       </c>
       <c r="E4">
-        <v>0.00309158369614765</v>
+        <v>0.004880039561775905</v>
       </c>
       <c r="F4">
-        <v>0.05316656140995293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01715924055940404</v>
+      </c>
+      <c r="G4">
+        <v>-0.05074905347814508</v>
+      </c>
+      <c r="H4">
+        <v>0.02282526261507241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0450123333246333</v>
+        <v>0.01837224630023771</v>
       </c>
       <c r="C6">
-        <v>-0.005659533165916665</v>
+        <v>-0.06075780171550735</v>
       </c>
       <c r="D6">
-        <v>0.04043843170052985</v>
+        <v>0.01557129322175169</v>
       </c>
       <c r="E6">
-        <v>0.01641922925605231</v>
+        <v>0.00543272752187238</v>
       </c>
       <c r="F6">
-        <v>0.04080898010785439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.003616711309526396</v>
+      </c>
+      <c r="G6">
+        <v>-0.03132534153548487</v>
+      </c>
+      <c r="H6">
+        <v>0.02473850175814371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03816750687914473</v>
+        <v>0.003555767538835344</v>
       </c>
       <c r="C7">
-        <v>0.06444596964034766</v>
+        <v>-0.02571214839654653</v>
       </c>
       <c r="D7">
-        <v>0.007030832071404659</v>
+        <v>0.01245470709793027</v>
       </c>
       <c r="E7">
-        <v>0.001531221551079185</v>
+        <v>0.01702646925800876</v>
       </c>
       <c r="F7">
-        <v>0.01859392107828248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.07493845346737463</v>
+      </c>
+      <c r="G7">
+        <v>-0.01271411287292794</v>
+      </c>
+      <c r="H7">
+        <v>0.01132114156224164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002499867183842565</v>
+        <v>-0.007094397662732466</v>
       </c>
       <c r="C8">
-        <v>0.01047182696371378</v>
+        <v>0.00151772412227185</v>
       </c>
       <c r="D8">
-        <v>0.02751422360766826</v>
+        <v>0.001959423708703854</v>
       </c>
       <c r="E8">
-        <v>-0.002881050490406204</v>
+        <v>-0.004830956927189683</v>
       </c>
       <c r="F8">
-        <v>0.05003178952877211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01611902507563555</v>
+      </c>
+      <c r="G8">
+        <v>-0.01769008170288549</v>
+      </c>
+      <c r="H8">
+        <v>0.005826625015297405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03030281215991194</v>
+        <v>0.01459240123959371</v>
       </c>
       <c r="C9">
-        <v>0.008322025594102537</v>
+        <v>-0.04327498000271763</v>
       </c>
       <c r="D9">
-        <v>0.03161670697081177</v>
+        <v>0.01502829246588863</v>
       </c>
       <c r="E9">
-        <v>-0.02638522103245214</v>
+        <v>0.001118769368371634</v>
       </c>
       <c r="F9">
-        <v>0.0543589318578774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02044216074982323</v>
+      </c>
+      <c r="G9">
+        <v>-0.01870679301953901</v>
+      </c>
+      <c r="H9">
+        <v>0.02987830442358823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05312641067106831</v>
+        <v>0.1278875268925167</v>
       </c>
       <c r="C10">
-        <v>-0.0112569134102019</v>
+        <v>0.1571366112828569</v>
       </c>
       <c r="D10">
-        <v>-0.1541156790436813</v>
+        <v>-0.02566148230047942</v>
       </c>
       <c r="E10">
-        <v>-0.07605227189606063</v>
+        <v>-0.02821153359456834</v>
       </c>
       <c r="F10">
-        <v>0.001555211627931261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03932406792989225</v>
+      </c>
+      <c r="G10">
+        <v>0.02510221623279652</v>
+      </c>
+      <c r="H10">
+        <v>0.001866657244258741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02898886482934508</v>
+        <v>0.01251484766500055</v>
       </c>
       <c r="C11">
-        <v>-0.007224319533389645</v>
+        <v>-0.04567541685069502</v>
       </c>
       <c r="D11">
-        <v>0.04317312107190643</v>
+        <v>0.001169318495341457</v>
       </c>
       <c r="E11">
-        <v>0.01157149015358361</v>
+        <v>0.008706582861945063</v>
       </c>
       <c r="F11">
-        <v>0.02158835602738255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.0004958711973805732</v>
+      </c>
+      <c r="G11">
+        <v>-0.01474368266860627</v>
+      </c>
+      <c r="H11">
+        <v>0.034606587926421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03726283470121802</v>
+        <v>0.01630181381556889</v>
       </c>
       <c r="C12">
-        <v>-0.003415134603141608</v>
+        <v>-0.04261577149102624</v>
       </c>
       <c r="D12">
-        <v>0.03779274083145916</v>
+        <v>0.005161970846525123</v>
       </c>
       <c r="E12">
-        <v>0.02539215572158431</v>
+        <v>0.01321630500813166</v>
       </c>
       <c r="F12">
-        <v>0.004295048056756883</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01304538406584199</v>
+      </c>
+      <c r="G12">
+        <v>-0.008263702133575647</v>
+      </c>
+      <c r="H12">
+        <v>0.01272372554656737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01448101055676281</v>
+        <v>0.01079215564354549</v>
       </c>
       <c r="C13">
-        <v>-0.01155635062758358</v>
+        <v>-0.0191435398785254</v>
       </c>
       <c r="D13">
-        <v>0.004808534518403797</v>
+        <v>0.02203896227447474</v>
       </c>
       <c r="E13">
-        <v>-0.02324919168727344</v>
+        <v>-0.01470436573184248</v>
       </c>
       <c r="F13">
-        <v>0.05241362170189624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0002989919293314237</v>
+      </c>
+      <c r="G13">
+        <v>-0.03189387115914387</v>
+      </c>
+      <c r="H13">
+        <v>0.04241634180378075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01930363761055538</v>
+        <v>0.002286977865382746</v>
       </c>
       <c r="C14">
-        <v>0.01452878501542184</v>
+        <v>-0.01625119007552782</v>
       </c>
       <c r="D14">
-        <v>0.009159919825365152</v>
+        <v>0.007853806359211625</v>
       </c>
       <c r="E14">
-        <v>-0.002352576090531519</v>
+        <v>0.005844834097649469</v>
       </c>
       <c r="F14">
-        <v>0.03999285104843794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03087127624398909</v>
+      </c>
+      <c r="G14">
+        <v>-0.0131180894217959</v>
+      </c>
+      <c r="H14">
+        <v>0.003826663194589119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02625848179639242</v>
+        <v>0.01253183905787304</v>
       </c>
       <c r="C16">
-        <v>-0.003239628564232812</v>
+        <v>-0.0386955332620085</v>
       </c>
       <c r="D16">
-        <v>0.04259656143535036</v>
+        <v>0.0008142980879657247</v>
       </c>
       <c r="E16">
-        <v>0.01137571145059258</v>
+        <v>0.006029291572359284</v>
       </c>
       <c r="F16">
-        <v>0.02438531868399008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.006831653515659422</v>
+      </c>
+      <c r="G16">
+        <v>-0.01378737573731741</v>
+      </c>
+      <c r="H16">
+        <v>0.02139702030641155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02901028712883468</v>
+        <v>0.01489884411051283</v>
       </c>
       <c r="C19">
-        <v>-0.005759782429973414</v>
+        <v>-0.04069053885566513</v>
       </c>
       <c r="D19">
-        <v>0.03204802753666291</v>
+        <v>0.01260528433795298</v>
       </c>
       <c r="E19">
-        <v>0.004590707503783277</v>
+        <v>-0.01680285921752836</v>
       </c>
       <c r="F19">
-        <v>0.08171331033595669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01095483939035099</v>
+      </c>
+      <c r="G19">
+        <v>-0.04803129601067703</v>
+      </c>
+      <c r="H19">
+        <v>0.03530039098905735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003594533419681205</v>
+        <v>-0.0009733306100601212</v>
       </c>
       <c r="C20">
-        <v>0.00804725188788161</v>
+        <v>-0.01851575223135734</v>
       </c>
       <c r="D20">
-        <v>0.005230461883624745</v>
+        <v>0.01195959067738818</v>
       </c>
       <c r="E20">
-        <v>-0.01445762068384584</v>
+        <v>-0.01226410170993405</v>
       </c>
       <c r="F20">
-        <v>0.03153615671867613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.0129555915586089</v>
+      </c>
+      <c r="G20">
+        <v>-0.02008654841540742</v>
+      </c>
+      <c r="H20">
+        <v>0.01647868714100278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03949342942152721</v>
+        <v>0.00293208156572956</v>
       </c>
       <c r="C21">
-        <v>0.01864142457452269</v>
+        <v>-0.01523839273681591</v>
       </c>
       <c r="D21">
-        <v>0.01983456817678336</v>
+        <v>0.01443513626886587</v>
       </c>
       <c r="E21">
-        <v>-0.003370822993020945</v>
+        <v>-0.01332950369741654</v>
       </c>
       <c r="F21">
-        <v>0.0339740982189587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03934250457764618</v>
+      </c>
+      <c r="G21">
+        <v>-0.01863137077489228</v>
+      </c>
+      <c r="H21">
+        <v>0.02695221939890442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02424276887611819</v>
+        <v>0.007037525006657512</v>
       </c>
       <c r="C24">
-        <v>-0.003678055434000862</v>
+        <v>-0.03865286543308581</v>
       </c>
       <c r="D24">
-        <v>0.03271775348713562</v>
+        <v>0.006001425068539755</v>
       </c>
       <c r="E24">
-        <v>0.009572295946641515</v>
+        <v>0.01131792034867704</v>
       </c>
       <c r="F24">
-        <v>0.02123353839181693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.004769623683745682</v>
+      </c>
+      <c r="G24">
+        <v>-0.01097405512554744</v>
+      </c>
+      <c r="H24">
+        <v>0.02914251221789079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.036202879459367</v>
+        <v>0.02238473684485467</v>
       </c>
       <c r="C25">
-        <v>-0.005229380237994512</v>
+        <v>-0.04930701865706973</v>
       </c>
       <c r="D25">
-        <v>0.0346523359048817</v>
+        <v>0.009591334355500131</v>
       </c>
       <c r="E25">
-        <v>0.001522071570124822</v>
+        <v>0.01772165513504262</v>
       </c>
       <c r="F25">
-        <v>0.03356631043722499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.009390699084443113</v>
+      </c>
+      <c r="G25">
+        <v>-0.019381857321373</v>
+      </c>
+      <c r="H25">
+        <v>0.02235392160236068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01297999921916495</v>
+        <v>0.00240146585047681</v>
       </c>
       <c r="C26">
-        <v>0.007636765838641142</v>
+        <v>-1.866243669838795e-05</v>
       </c>
       <c r="D26">
-        <v>0.01184777322549402</v>
+        <v>0.02308387725574584</v>
       </c>
       <c r="E26">
-        <v>-0.03368448702756972</v>
+        <v>0.001329330407380655</v>
       </c>
       <c r="F26">
-        <v>0.03099094768876384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.02184357895625887</v>
+      </c>
+      <c r="G26">
+        <v>-0.0002000408421750599</v>
+      </c>
+      <c r="H26">
+        <v>0.007334624099281427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.01170450252540541</v>
+        <v>0.003507079970655413</v>
       </c>
       <c r="C27">
-        <v>0.002416440749774791</v>
+        <v>-0.002091129346708233</v>
       </c>
       <c r="D27">
-        <v>-0.001957665249101793</v>
+        <v>-0.0005235509997446661</v>
       </c>
       <c r="E27">
-        <v>0.003178616969244025</v>
+        <v>-0.001498349606793857</v>
       </c>
       <c r="F27">
-        <v>0.01131157450563451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.007435269116939579</v>
+      </c>
+      <c r="G27">
+        <v>-0.001547794591402564</v>
+      </c>
+      <c r="H27">
+        <v>-0.002831737012487576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09268170877420157</v>
+        <v>0.17782149298089</v>
       </c>
       <c r="C28">
-        <v>-0.02413714758631666</v>
+        <v>0.1922936664383241</v>
       </c>
       <c r="D28">
-        <v>-0.2204919563652984</v>
+        <v>-0.0211601840692028</v>
       </c>
       <c r="E28">
-        <v>-0.08541958083153801</v>
+        <v>-0.02008155303250478</v>
       </c>
       <c r="F28">
-        <v>0.002259162883832801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04351807539705078</v>
+      </c>
+      <c r="G28">
+        <v>0.01391446519424642</v>
+      </c>
+      <c r="H28">
+        <v>0.002041937842634146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02088790888707884</v>
+        <v>0.009093190366461263</v>
       </c>
       <c r="C29">
-        <v>0.01077522331523249</v>
+        <v>-0.01575382278674046</v>
       </c>
       <c r="D29">
-        <v>0.009087047148765921</v>
+        <v>0.006480917650874675</v>
       </c>
       <c r="E29">
-        <v>-0.00155676259848713</v>
+        <v>0.005738845927478074</v>
       </c>
       <c r="F29">
-        <v>0.03742543947559589</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02618014214426468</v>
+      </c>
+      <c r="G29">
+        <v>-0.01020937368715728</v>
+      </c>
+      <c r="H29">
+        <v>-0.00382768174663968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04106421443882437</v>
+        <v>0.02542379326496701</v>
       </c>
       <c r="C30">
-        <v>-0.05094275088247962</v>
+        <v>-0.08348554766741345</v>
       </c>
       <c r="D30">
-        <v>0.05660631409694182</v>
+        <v>0.02523026150076311</v>
       </c>
       <c r="E30">
-        <v>-0.01027406404959127</v>
+        <v>0.001353394039280366</v>
       </c>
       <c r="F30">
-        <v>0.08299263764319147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02897223690510918</v>
+      </c>
+      <c r="G30">
+        <v>-0.0410962643230862</v>
+      </c>
+      <c r="H30">
+        <v>0.04059695218809543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04760559384816701</v>
+        <v>0.0309081072174534</v>
       </c>
       <c r="C31">
-        <v>0.004480076308738298</v>
+        <v>-0.02492524316479105</v>
       </c>
       <c r="D31">
-        <v>0.01323922770790407</v>
+        <v>0.001675115991940891</v>
       </c>
       <c r="E31">
-        <v>0.006573319684452267</v>
+        <v>0.00916018730313441</v>
       </c>
       <c r="F31">
-        <v>0.02228767759649283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.0273857471493472</v>
+      </c>
+      <c r="G31">
+        <v>0.008389997529924387</v>
+      </c>
+      <c r="H31">
+        <v>-0.01204790778692923</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.00949660661437624</v>
+        <v>0.003137278253182118</v>
       </c>
       <c r="C32">
-        <v>0.03119757789968322</v>
+        <v>-0.0145831067454266</v>
       </c>
       <c r="D32">
-        <v>0.02877802460673647</v>
+        <v>-0.007417332090519822</v>
       </c>
       <c r="E32">
-        <v>0.005932768751694748</v>
+        <v>-0.001268648466586203</v>
       </c>
       <c r="F32">
-        <v>0.04716352249060379</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.02250757646471445</v>
+      </c>
+      <c r="G32">
+        <v>-0.07444932752331765</v>
+      </c>
+      <c r="H32">
+        <v>0.05887959840840531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03521630581500595</v>
+        <v>0.01337467590519102</v>
       </c>
       <c r="C33">
-        <v>-0.02119572820825273</v>
+        <v>-0.04060671078102306</v>
       </c>
       <c r="D33">
-        <v>0.03565237577859816</v>
+        <v>0.01252465098366264</v>
       </c>
       <c r="E33">
-        <v>-0.0174230665124214</v>
+        <v>-0.008291437353143669</v>
       </c>
       <c r="F33">
-        <v>0.04763475732296669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.008984660670818264</v>
+      </c>
+      <c r="G33">
+        <v>-0.0004080938343149752</v>
+      </c>
+      <c r="H33">
+        <v>0.03147969384588662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02877770388645651</v>
+        <v>0.02490861312681652</v>
       </c>
       <c r="C34">
-        <v>0.004874873916827327</v>
+        <v>-0.04914971124741012</v>
       </c>
       <c r="D34">
-        <v>0.04201110761265667</v>
+        <v>-0.007144357816603854</v>
       </c>
       <c r="E34">
-        <v>0.01736091014822921</v>
+        <v>0.02222172770940688</v>
       </c>
       <c r="F34">
-        <v>0.02629279457684021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01119085859799032</v>
+      </c>
+      <c r="G34">
+        <v>-0.01865755289011005</v>
+      </c>
+      <c r="H34">
+        <v>0.02480921669258397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01606177035147731</v>
+        <v>0.007029294659574865</v>
       </c>
       <c r="C36">
-        <v>0.005795935884891162</v>
+        <v>0.0005798368897408595</v>
       </c>
       <c r="D36">
-        <v>0.003473171081316373</v>
+        <v>0.01031310006510921</v>
       </c>
       <c r="E36">
-        <v>-0.01018981850009668</v>
+        <v>-0.0002186941124379503</v>
       </c>
       <c r="F36">
-        <v>0.02224765595032326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01689745129351288</v>
+      </c>
+      <c r="G36">
+        <v>0.001736036180168889</v>
+      </c>
+      <c r="H36">
+        <v>0.00721972410833382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02104889901172886</v>
+        <v>0.02603247048210033</v>
       </c>
       <c r="C38">
-        <v>-0.000745453541419941</v>
+        <v>-0.01692583559243538</v>
       </c>
       <c r="D38">
-        <v>0.0008522136387892149</v>
+        <v>-0.009767782751332867</v>
       </c>
       <c r="E38">
-        <v>-0.03808515184595142</v>
+        <v>0.003097750434348926</v>
       </c>
       <c r="F38">
-        <v>0.03405133957469657</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01603211507091876</v>
+      </c>
+      <c r="G38">
+        <v>-0.006535107390090047</v>
+      </c>
+      <c r="H38">
+        <v>0.0124358967370959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02411706144970591</v>
+        <v>-0.0005458054607108078</v>
       </c>
       <c r="C39">
-        <v>0.00203858127715634</v>
+        <v>-0.0805353683656258</v>
       </c>
       <c r="D39">
-        <v>0.05922860765369391</v>
+        <v>0.01253209294655625</v>
       </c>
       <c r="E39">
-        <v>-0.00213602018759192</v>
+        <v>0.004841859354517976</v>
       </c>
       <c r="F39">
-        <v>0.05083419872554729</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.002233020708943587</v>
+      </c>
+      <c r="G39">
+        <v>-0.02289567982704953</v>
+      </c>
+      <c r="H39">
+        <v>0.05522498321607314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01547378089323359</v>
+        <v>0.01558461890090184</v>
       </c>
       <c r="C40">
-        <v>-0.03520455526912516</v>
+        <v>-0.02639721352067539</v>
       </c>
       <c r="D40">
-        <v>0.02916189338178879</v>
+        <v>0.009922315228413917</v>
       </c>
       <c r="E40">
-        <v>0.005898101926163247</v>
+        <v>0.002014204172599799</v>
       </c>
       <c r="F40">
-        <v>0.0241563456814192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02590620845855986</v>
+      </c>
+      <c r="G40">
+        <v>-0.01987267282363499</v>
+      </c>
+      <c r="H40">
+        <v>0.03274725224014173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01417838095545135</v>
+        <v>0.01218979675146143</v>
       </c>
       <c r="C41">
-        <v>0.002286136573763284</v>
+        <v>0.01102940701651071</v>
       </c>
       <c r="D41">
-        <v>-0.01070580343001772</v>
+        <v>0.002157022699261407</v>
       </c>
       <c r="E41">
-        <v>-0.0210348595065418</v>
+        <v>0.00329660806831052</v>
       </c>
       <c r="F41">
-        <v>-0.003084162338530211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01484626297882444</v>
+      </c>
+      <c r="G41">
+        <v>0.01032876199624255</v>
+      </c>
+      <c r="H41">
+        <v>0.001600804254763344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2784402965257562</v>
+        <v>0.07096267873712289</v>
       </c>
       <c r="C42">
-        <v>-0.1201570185245315</v>
+        <v>-0.1521038417985606</v>
       </c>
       <c r="D42">
-        <v>0.3351785499121979</v>
+        <v>0.1215127531259016</v>
       </c>
       <c r="E42">
-        <v>-0.6575087338043774</v>
+        <v>-0.1215188889801386</v>
       </c>
       <c r="F42">
-        <v>-0.5543213983809631</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.05223326607150214</v>
+      </c>
+      <c r="G42">
+        <v>0.8961416799850913</v>
+      </c>
+      <c r="H42">
+        <v>0.3371782851366377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01796661088191747</v>
+        <v>0.01480962268523539</v>
       </c>
       <c r="C43">
-        <v>-0.002069963953442473</v>
+        <v>0.00667919808250658</v>
       </c>
       <c r="D43">
-        <v>-0.004228261179446779</v>
+        <v>0.002742853648926419</v>
       </c>
       <c r="E43">
-        <v>-0.023386960734596</v>
+        <v>0.0004399493851892593</v>
       </c>
       <c r="F43">
-        <v>0.01017425721565923</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01262788279463257</v>
+      </c>
+      <c r="G43">
+        <v>0.008678246591829378</v>
+      </c>
+      <c r="H43">
+        <v>0.008880266265581586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01760657424383519</v>
+        <v>0.003861966503896326</v>
       </c>
       <c r="C44">
-        <v>0.01405355322433833</v>
+        <v>-0.04137340455398651</v>
       </c>
       <c r="D44">
-        <v>0.02152691358206698</v>
+        <v>0.006412302964487811</v>
       </c>
       <c r="E44">
-        <v>-0.03648006630966058</v>
+        <v>-0.008635231390843648</v>
       </c>
       <c r="F44">
-        <v>0.06378361585561293</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02548419911773537</v>
+      </c>
+      <c r="G44">
+        <v>-0.01371502359787654</v>
+      </c>
+      <c r="H44">
+        <v>0.04613001173816181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01719895525637827</v>
+        <v>-0.0008712997148588666</v>
       </c>
       <c r="C46">
-        <v>0.004948982264757502</v>
+        <v>-0.007520076281248303</v>
       </c>
       <c r="D46">
-        <v>0.03634878893491795</v>
+        <v>0.0113044194424301</v>
       </c>
       <c r="E46">
-        <v>-0.003462434462120816</v>
+        <v>-0.001941078817231416</v>
       </c>
       <c r="F46">
-        <v>0.06681132037434129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.0205145288749585</v>
+      </c>
+      <c r="G46">
+        <v>-0.00699761387490932</v>
+      </c>
+      <c r="H46">
+        <v>0.001524567910010085</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06964385592322331</v>
+        <v>0.04991644736875133</v>
       </c>
       <c r="C47">
-        <v>-0.01699002287850381</v>
+        <v>-0.05734492050895397</v>
       </c>
       <c r="D47">
-        <v>0.01447768135326775</v>
+        <v>-0.00629845886323532</v>
       </c>
       <c r="E47">
-        <v>0.02199043442996358</v>
+        <v>0.006954856470006957</v>
       </c>
       <c r="F47">
-        <v>-0.007330196599817748</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.02361040637347997</v>
+      </c>
+      <c r="G47">
+        <v>0.02118401050444983</v>
+      </c>
+      <c r="H47">
+        <v>-0.04529565433522117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02309254080630946</v>
+        <v>0.0105069293996114</v>
       </c>
       <c r="C48">
-        <v>0.003530306395938342</v>
+        <v>-0.009673634740496519</v>
       </c>
       <c r="D48">
-        <v>0.009866605511606332</v>
+        <v>0.0008051270893926966</v>
       </c>
       <c r="E48">
-        <v>-0.004069080032927068</v>
+        <v>0.001982906731322689</v>
       </c>
       <c r="F48">
-        <v>0.02384415530223671</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01822421704975991</v>
+      </c>
+      <c r="G48">
+        <v>-0.001937213662711474</v>
+      </c>
+      <c r="H48">
+        <v>0.005145690434913768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08243982654037275</v>
+        <v>0.0566777114523441</v>
       </c>
       <c r="C50">
-        <v>0.01112040512137948</v>
+        <v>-0.06066079131823469</v>
       </c>
       <c r="D50">
-        <v>0.03583890491853891</v>
+        <v>-0.005245028156522953</v>
       </c>
       <c r="E50">
-        <v>0.01943211874904486</v>
+        <v>0.01024901597390051</v>
       </c>
       <c r="F50">
-        <v>0.02417856291678923</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0483953255706923</v>
+      </c>
+      <c r="G50">
+        <v>0.006443437382696085</v>
+      </c>
+      <c r="H50">
+        <v>-0.0313794970198868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01345261251143168</v>
+        <v>0.005612558396543885</v>
       </c>
       <c r="C51">
-        <v>0.00829369433934443</v>
+        <v>-0.01016486955753633</v>
       </c>
       <c r="D51">
-        <v>-0.01039470838166438</v>
+        <v>0.007350043033961407</v>
       </c>
       <c r="E51">
-        <v>-0.04139967118792961</v>
+        <v>0.004204765867282127</v>
       </c>
       <c r="F51">
-        <v>0.06612007697480073</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.02550496998916368</v>
+      </c>
+      <c r="G51">
+        <v>-0.009313809225208157</v>
+      </c>
+      <c r="H51">
+        <v>0.03156939318231653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.100508355309429</v>
+        <v>0.07128987966763327</v>
       </c>
       <c r="C53">
-        <v>-0.0184645092779263</v>
+        <v>-0.09235291697914767</v>
       </c>
       <c r="D53">
-        <v>0.03985462463322016</v>
+        <v>-0.006761716111089318</v>
       </c>
       <c r="E53">
-        <v>0.06591916306645429</v>
+        <v>0.03208142465900068</v>
       </c>
       <c r="F53">
-        <v>-0.0106618154782253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02101423644828534</v>
+      </c>
+      <c r="G53">
+        <v>0.0196244223494131</v>
+      </c>
+      <c r="H53">
+        <v>-0.05163126609814067</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02819878200441831</v>
+        <v>0.01952293102424228</v>
       </c>
       <c r="C54">
-        <v>0.007736228914290239</v>
+        <v>0.001639238102418489</v>
       </c>
       <c r="D54">
-        <v>-0.004630040840696149</v>
+        <v>-0.005407425216414375</v>
       </c>
       <c r="E54">
-        <v>0.002280821523260432</v>
+        <v>-0.002450401191070417</v>
       </c>
       <c r="F54">
-        <v>0.02606093411753851</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02629024939704973</v>
+      </c>
+      <c r="G54">
+        <v>-0.0068789205022572</v>
+      </c>
+      <c r="H54">
+        <v>-0.001437211151997358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08250693738371938</v>
+        <v>0.05044055340980333</v>
       </c>
       <c r="C55">
-        <v>-0.01649593873849804</v>
+        <v>-0.08179019723314927</v>
       </c>
       <c r="D55">
-        <v>0.06262176205978061</v>
+        <v>-0.00468098216509348</v>
       </c>
       <c r="E55">
-        <v>0.03847614944376593</v>
+        <v>0.02005582346323406</v>
       </c>
       <c r="F55">
-        <v>-0.01356914500302283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01782795864866933</v>
+      </c>
+      <c r="G55">
+        <v>0.02528946745206679</v>
+      </c>
+      <c r="H55">
+        <v>-0.04460892914433759</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.133438767419311</v>
+        <v>0.107835943503778</v>
       </c>
       <c r="C56">
-        <v>-0.03766985796494002</v>
+        <v>-0.1318394525935064</v>
       </c>
       <c r="D56">
-        <v>0.05167418908393075</v>
+        <v>-0.01546413681178847</v>
       </c>
       <c r="E56">
-        <v>0.09511708081885904</v>
+        <v>0.03476445287791718</v>
       </c>
       <c r="F56">
-        <v>-0.04048264519027361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.001800457798517687</v>
+      </c>
+      <c r="G56">
+        <v>0.02607433248691665</v>
+      </c>
+      <c r="H56">
+        <v>-0.08870680047557515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04315983895825232</v>
+        <v>0.01890723198213975</v>
       </c>
       <c r="C57">
-        <v>-0.01003926843536812</v>
+        <v>-0.02296195076763274</v>
       </c>
       <c r="D57">
-        <v>0.01882774036702541</v>
+        <v>0.02349253814432606</v>
       </c>
       <c r="E57">
-        <v>-0.04914751976238518</v>
+        <v>-0.03032672946693672</v>
       </c>
       <c r="F57">
-        <v>0.03638438567082994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01899076226838346</v>
+      </c>
+      <c r="G57">
+        <v>-0.02498637020748055</v>
+      </c>
+      <c r="H57">
+        <v>0.045995921193228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.171910175876847</v>
+        <v>0.06184586067304373</v>
       </c>
       <c r="C58">
-        <v>-0.1516186918465453</v>
+        <v>-0.1636230305781949</v>
       </c>
       <c r="D58">
-        <v>0.2247663047905582</v>
+        <v>0.01798684675219937</v>
       </c>
       <c r="E58">
-        <v>-0.2785793626609812</v>
+        <v>-0.9586310442264818</v>
       </c>
       <c r="F58">
-        <v>0.6278826662085775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.02404429556422928</v>
+      </c>
+      <c r="G58">
+        <v>-0.1371999443353367</v>
+      </c>
+      <c r="H58">
+        <v>-0.08761263165932875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0824696318869441</v>
+        <v>0.2004069723590099</v>
       </c>
       <c r="C59">
-        <v>-0.04422897117360362</v>
+        <v>0.1755868570553549</v>
       </c>
       <c r="D59">
-        <v>-0.183150289746976</v>
+        <v>-0.02865258942099232</v>
       </c>
       <c r="E59">
-        <v>-0.06720510159523588</v>
+        <v>-0.01880062192699898</v>
       </c>
       <c r="F59">
-        <v>0.04413404279936236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01071621867073875</v>
+      </c>
+      <c r="G59">
+        <v>-0.008494349621764407</v>
+      </c>
+      <c r="H59">
+        <v>0.01358704171325134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1713028573721018</v>
+        <v>0.2535753419613053</v>
       </c>
       <c r="C60">
-        <v>-0.08257289806582135</v>
+        <v>-0.1111924981387531</v>
       </c>
       <c r="D60">
-        <v>-0.02086006540202955</v>
+        <v>-0.008461808874656463</v>
       </c>
       <c r="E60">
-        <v>-0.04451981209636066</v>
+        <v>0.06783269845455812</v>
       </c>
       <c r="F60">
-        <v>0.1136417766991334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1426291398161226</v>
+      </c>
+      <c r="G60">
+        <v>-0.195666154082544</v>
+      </c>
+      <c r="H60">
+        <v>0.3553888338855542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02824991402716796</v>
+        <v>0.01015489110552952</v>
       </c>
       <c r="C61">
-        <v>-0.002183972509491074</v>
+        <v>-0.06338522690353865</v>
       </c>
       <c r="D61">
-        <v>0.04775287850170285</v>
+        <v>0.00485364744568084</v>
       </c>
       <c r="E61">
-        <v>-0.002420153871406868</v>
+        <v>0.007745973725280234</v>
       </c>
       <c r="F61">
-        <v>0.02417166289133653</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.004630472781844221</v>
+      </c>
+      <c r="G61">
+        <v>-0.02482439500024192</v>
+      </c>
+      <c r="H61">
+        <v>0.03834986901939508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01851951180785149</v>
+        <v>0.006879847779296564</v>
       </c>
       <c r="C63">
-        <v>0.005648687621834681</v>
+        <v>-0.02243247559938101</v>
       </c>
       <c r="D63">
-        <v>0.02059021418698074</v>
+        <v>0.007216954475795763</v>
       </c>
       <c r="E63">
-        <v>0.00105895403080973</v>
+        <v>0.01471434576392615</v>
       </c>
       <c r="F63">
-        <v>0.01020384656536699</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01988091009873635</v>
+      </c>
+      <c r="G63">
+        <v>-0.005575151261439519</v>
+      </c>
+      <c r="H63">
+        <v>-0.003572055615083798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0430271305461747</v>
+        <v>0.03553944818002427</v>
       </c>
       <c r="C64">
-        <v>-0.002640053452452316</v>
+        <v>-0.04273521300869659</v>
       </c>
       <c r="D64">
-        <v>0.02771065168102804</v>
+        <v>0.002820950848212857</v>
       </c>
       <c r="E64">
-        <v>0.0002189276872510449</v>
+        <v>0.01821798765191851</v>
       </c>
       <c r="F64">
-        <v>0.0229255409997358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0105453337795882</v>
+      </c>
+      <c r="G64">
+        <v>0.00403029172216667</v>
+      </c>
+      <c r="H64">
+        <v>0.02351396643108382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04964718350610924</v>
+        <v>0.04934922603021553</v>
       </c>
       <c r="C65">
-        <v>-0.006351686676110189</v>
+        <v>-0.08495631734713255</v>
       </c>
       <c r="D65">
-        <v>0.0428409067406073</v>
+        <v>0.01420605559763886</v>
       </c>
       <c r="E65">
-        <v>0.02301601586866822</v>
+        <v>0.01816691547990924</v>
       </c>
       <c r="F65">
-        <v>0.03609554192140108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.01225667882347382</v>
+      </c>
+      <c r="G65">
+        <v>-0.04427503582204589</v>
+      </c>
+      <c r="H65">
+        <v>0.02878818697340792</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04341005179214375</v>
+        <v>0.01177636008401142</v>
       </c>
       <c r="C66">
-        <v>-0.01673798383263418</v>
+        <v>-0.1157746833413845</v>
       </c>
       <c r="D66">
-        <v>0.06896740789975617</v>
+        <v>0.01085341698083091</v>
       </c>
       <c r="E66">
-        <v>0.03801372464859223</v>
+        <v>0.009326412317501333</v>
       </c>
       <c r="F66">
-        <v>0.06092858628329279</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01196986539938048</v>
+      </c>
+      <c r="G66">
+        <v>-0.04663991101236916</v>
+      </c>
+      <c r="H66">
+        <v>0.04970923391556818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03444833310461152</v>
+        <v>0.04887830281603022</v>
       </c>
       <c r="C67">
-        <v>-0.00616202723761065</v>
+        <v>-0.02660783375427911</v>
       </c>
       <c r="D67">
-        <v>-0.008495503370680065</v>
+        <v>-0.009138361638467029</v>
       </c>
       <c r="E67">
-        <v>-0.02485029779542844</v>
+        <v>0.009826499325794748</v>
       </c>
       <c r="F67">
-        <v>0.02210198219915792</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01522953651061726</v>
+      </c>
+      <c r="G67">
+        <v>-0.01322521485439297</v>
+      </c>
+      <c r="H67">
+        <v>0.008393150156645185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09128387009118133</v>
+        <v>0.1969399713527144</v>
       </c>
       <c r="C68">
-        <v>-0.04388461565437259</v>
+        <v>0.2222153040561415</v>
       </c>
       <c r="D68">
-        <v>-0.2136688325166119</v>
+        <v>-0.01080733631967309</v>
       </c>
       <c r="E68">
-        <v>-0.07364753876919596</v>
+        <v>-0.0309587572827489</v>
       </c>
       <c r="F68">
-        <v>0.0172425098888852</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02806846071269398</v>
+      </c>
+      <c r="G68">
+        <v>0.03130794120078607</v>
+      </c>
+      <c r="H68">
+        <v>-0.01573172124488086</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06036050930750377</v>
+        <v>0.05267852850140578</v>
       </c>
       <c r="C69">
-        <v>-0.01775838710808898</v>
+        <v>-0.05541079627869101</v>
       </c>
       <c r="D69">
-        <v>0.02302369307363559</v>
+        <v>-0.01096550570126703</v>
       </c>
       <c r="E69">
-        <v>0.02801849556420776</v>
+        <v>0.02798916879147724</v>
       </c>
       <c r="F69">
-        <v>0.008104649881683752</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.009997771156290716</v>
+      </c>
+      <c r="G69">
+        <v>0.002605323196378148</v>
+      </c>
+      <c r="H69">
+        <v>-0.0177346171810598</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08896521230171525</v>
+        <v>0.1771611773296077</v>
       </c>
       <c r="C71">
-        <v>-0.0266221648812568</v>
+        <v>0.1799578264878129</v>
       </c>
       <c r="D71">
-        <v>-0.2045290180771424</v>
+        <v>-0.01598270675571727</v>
       </c>
       <c r="E71">
-        <v>-0.1168549849098435</v>
+        <v>-0.04370319449067687</v>
       </c>
       <c r="F71">
-        <v>-0.008666945502192137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04444527154436104</v>
+      </c>
+      <c r="G71">
+        <v>0.03707554588889791</v>
+      </c>
+      <c r="H71">
+        <v>0.001042255090005431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09508864622031131</v>
+        <v>0.05535543539427415</v>
       </c>
       <c r="C72">
-        <v>-0.02912099303866912</v>
+        <v>-0.09586688145031404</v>
       </c>
       <c r="D72">
-        <v>0.09646659648574231</v>
+        <v>-0.01163592202968366</v>
       </c>
       <c r="E72">
-        <v>0.05501268827268579</v>
+        <v>0.03431535415722738</v>
       </c>
       <c r="F72">
-        <v>0.1436958541831092</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02925268170608726</v>
+      </c>
+      <c r="G72">
+        <v>-0.05882063635368379</v>
+      </c>
+      <c r="H72">
+        <v>0.04216228130199439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2061596124704611</v>
+        <v>0.3227784838535687</v>
       </c>
       <c r="C73">
-        <v>-0.1359967465524936</v>
+        <v>-0.1738389065860863</v>
       </c>
       <c r="D73">
-        <v>0.01576879781845575</v>
+        <v>-0.003793062929016074</v>
       </c>
       <c r="E73">
-        <v>-0.1012265512982672</v>
+        <v>0.05271272830875845</v>
       </c>
       <c r="F73">
-        <v>0.120339710690759</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1940193799712442</v>
+      </c>
+      <c r="G73">
+        <v>-0.2117108539332196</v>
+      </c>
+      <c r="H73">
+        <v>0.4556642718953058</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1301314411180702</v>
+        <v>0.09908583447693903</v>
       </c>
       <c r="C74">
-        <v>-0.03644529138183975</v>
+        <v>-0.1332953730285217</v>
       </c>
       <c r="D74">
-        <v>0.04807356724402717</v>
+        <v>-0.0139423508825295</v>
       </c>
       <c r="E74">
-        <v>0.07646777258721883</v>
+        <v>0.03896045112383745</v>
       </c>
       <c r="F74">
-        <v>-0.04334925797106601</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01981978679224365</v>
+      </c>
+      <c r="G74">
+        <v>0.02159978400122198</v>
+      </c>
+      <c r="H74">
+        <v>-0.06671584907942815</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2317086145022612</v>
+        <v>0.2130524171603553</v>
       </c>
       <c r="C75">
-        <v>-0.08124413734004529</v>
+        <v>-0.2240731978884628</v>
       </c>
       <c r="D75">
-        <v>0.0597413595346093</v>
+        <v>-0.03405380158745511</v>
       </c>
       <c r="E75">
-        <v>0.1983332395366835</v>
+        <v>0.04789473211434316</v>
       </c>
       <c r="F75">
-        <v>-0.03253428423449377</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.008198544858338305</v>
+      </c>
+      <c r="G75">
+        <v>0.03504741933846246</v>
+      </c>
+      <c r="H75">
+        <v>-0.1895366543528229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.257216608123408</v>
+        <v>0.1395847750675334</v>
       </c>
       <c r="C76">
-        <v>-0.06576702617317433</v>
+        <v>-0.1856543385019201</v>
       </c>
       <c r="D76">
-        <v>0.08031937616152739</v>
+        <v>-0.02652115266806454</v>
       </c>
       <c r="E76">
-        <v>0.2511574195362596</v>
+        <v>0.066896649856478</v>
       </c>
       <c r="F76">
-        <v>-0.08915669381907432</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.02565247191428496</v>
+      </c>
+      <c r="G76">
+        <v>0.03577698014329935</v>
+      </c>
+      <c r="H76">
+        <v>-0.1551869952371248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.0905145550027722</v>
+        <v>0.04456166380912102</v>
       </c>
       <c r="C77">
-        <v>-0.0311820661323961</v>
+        <v>-0.0765506904515853</v>
       </c>
       <c r="D77">
-        <v>0.08441323797081556</v>
+        <v>0.01223260255095381</v>
       </c>
       <c r="E77">
-        <v>-0.09257565768269466</v>
+        <v>-0.03036011300410801</v>
       </c>
       <c r="F77">
-        <v>0.04568971638524616</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02334598086158469</v>
+      </c>
+      <c r="G77">
+        <v>0.02433481479695756</v>
+      </c>
+      <c r="H77">
+        <v>0.004569502599351731</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03484637841873031</v>
+        <v>0.02440506045721946</v>
       </c>
       <c r="C78">
-        <v>0.003593857789197188</v>
+        <v>-0.06276221664526795</v>
       </c>
       <c r="D78">
-        <v>0.06941274478680548</v>
+        <v>0.004704915451636092</v>
       </c>
       <c r="E78">
-        <v>-0.003204996523206877</v>
+        <v>-0.003705942750441076</v>
       </c>
       <c r="F78">
-        <v>0.072111714019937</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.00464914638139138</v>
+      </c>
+      <c r="G78">
+        <v>-0.0386653027518704</v>
+      </c>
+      <c r="H78">
+        <v>0.04689471456967734</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.3864677729762473</v>
+        <v>0.07628473000183197</v>
       </c>
       <c r="C80">
-        <v>0.9026504297191169</v>
+        <v>-0.1070208963487149</v>
       </c>
       <c r="D80">
-        <v>-0.03777830962920841</v>
+        <v>0.01169605587431784</v>
       </c>
       <c r="E80">
-        <v>-0.05482025034597524</v>
+        <v>0.06891434187973038</v>
       </c>
       <c r="F80">
-        <v>0.03365468277223072</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.938063904022324</v>
+      </c>
+      <c r="G80">
+        <v>-0.1272589981031771</v>
+      </c>
+      <c r="H80">
+        <v>0.1248141528377411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1877674127694936</v>
+        <v>0.1284334525850816</v>
       </c>
       <c r="C81">
-        <v>-0.05573540435944163</v>
+        <v>-0.140431203535783</v>
       </c>
       <c r="D81">
-        <v>0.03001396522650335</v>
+        <v>-0.01959615140657793</v>
       </c>
       <c r="E81">
-        <v>0.1559484269779614</v>
+        <v>0.02823345397748928</v>
       </c>
       <c r="F81">
-        <v>-0.01436918449258739</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01719668146163773</v>
+      </c>
+      <c r="G81">
+        <v>0.02137551715835877</v>
+      </c>
+      <c r="H81">
+        <v>-0.1127493862206036</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.006299378707337568</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.004550032736552335</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0008772471177409348</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01350291525094616</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.002435211187004143</v>
+      </c>
+      <c r="G82">
+        <v>-0.0007667668634298033</v>
+      </c>
+      <c r="H82">
+        <v>-0.0003398724892311608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03480536583369459</v>
+        <v>0.02110885994392094</v>
       </c>
       <c r="C83">
-        <v>-0.003588022007381664</v>
+        <v>-0.01846337163096412</v>
       </c>
       <c r="D83">
-        <v>0.01720164707066291</v>
+        <v>0.004224991265738818</v>
       </c>
       <c r="E83">
-        <v>-0.03658709682627555</v>
+        <v>-0.01672438498327162</v>
       </c>
       <c r="F83">
-        <v>0.04103953981658025</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01926675160679985</v>
+      </c>
+      <c r="G83">
+        <v>-0.02009486087419985</v>
+      </c>
+      <c r="H83">
+        <v>0.03542485922728007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2347466121225813</v>
+        <v>0.2106690616488195</v>
       </c>
       <c r="C85">
-        <v>-0.08556837062383114</v>
+        <v>-0.2396756699788622</v>
       </c>
       <c r="D85">
-        <v>0.0808317251597354</v>
+        <v>-0.02232965678303917</v>
       </c>
       <c r="E85">
-        <v>0.2185707925146915</v>
+        <v>0.07969527362179601</v>
       </c>
       <c r="F85">
-        <v>-0.05980940558346236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.04799422690560518</v>
+      </c>
+      <c r="G85">
+        <v>0.03224496309126916</v>
+      </c>
+      <c r="H85">
+        <v>-0.1634493203034854</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.006594822139109214</v>
+        <v>0.005643656336662865</v>
       </c>
       <c r="C86">
-        <v>0.006950716524629892</v>
+        <v>-0.02040905090787695</v>
       </c>
       <c r="D86">
-        <v>0.04652640132174211</v>
+        <v>0.008494667463861157</v>
       </c>
       <c r="E86">
-        <v>-0.0182017645066925</v>
+        <v>-0.006945523108834837</v>
       </c>
       <c r="F86">
-        <v>0.07828394613430885</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03608876902326308</v>
+      </c>
+      <c r="G86">
+        <v>-0.00198006183953288</v>
+      </c>
+      <c r="H86">
+        <v>0.04098364291941464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02578776824806353</v>
+        <v>0.0006046029463352116</v>
       </c>
       <c r="C87">
-        <v>-0.004800020055034767</v>
+        <v>-0.03226160283521189</v>
       </c>
       <c r="D87">
-        <v>0.04446200601088108</v>
+        <v>0.01047311939987868</v>
       </c>
       <c r="E87">
-        <v>-0.03701183201833848</v>
+        <v>-0.04176592101775695</v>
       </c>
       <c r="F87">
-        <v>0.08009233640096911</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.01543100894170344</v>
+      </c>
+      <c r="G87">
+        <v>-0.0312104681622138</v>
+      </c>
+      <c r="H87">
+        <v>0.0596353334395673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03986893679758795</v>
+        <v>0.04326715606455356</v>
       </c>
       <c r="C88">
-        <v>-0.008678643021867322</v>
+        <v>-0.02594579961185247</v>
       </c>
       <c r="D88">
-        <v>-0.001186016529121091</v>
+        <v>0.01944441307308677</v>
       </c>
       <c r="E88">
-        <v>-0.002261325448527903</v>
+        <v>0.005342266153276402</v>
       </c>
       <c r="F88">
-        <v>-0.01123180971241884</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01677891405707901</v>
+      </c>
+      <c r="G88">
+        <v>-0.00216575459920226</v>
+      </c>
+      <c r="H88">
+        <v>-0.004225627604921997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1479283424548021</v>
+        <v>0.3056103553357001</v>
       </c>
       <c r="C89">
-        <v>-0.08675283571321929</v>
+        <v>0.307827744681142</v>
       </c>
       <c r="D89">
-        <v>-0.3622603255070302</v>
+        <v>-0.02679921601605511</v>
       </c>
       <c r="E89">
-        <v>-0.07028928728709945</v>
+        <v>-0.01901066580704815</v>
       </c>
       <c r="F89">
-        <v>0.03793858820327433</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01504063223367103</v>
+      </c>
+      <c r="G89">
+        <v>0.02326996374681741</v>
+      </c>
+      <c r="H89">
+        <v>-0.02679176139916071</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09842436231056133</v>
+        <v>0.2529933094429684</v>
       </c>
       <c r="C90">
-        <v>-0.06700417638664441</v>
+        <v>0.2759322873450712</v>
       </c>
       <c r="D90">
-        <v>-0.3293952688215119</v>
+        <v>-0.02486808179104252</v>
       </c>
       <c r="E90">
-        <v>-0.08138749601541151</v>
+        <v>-0.03187610180094595</v>
       </c>
       <c r="F90">
-        <v>-0.01828545930555716</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01542079080334544</v>
+      </c>
+      <c r="G90">
+        <v>0.05319768424504166</v>
+      </c>
+      <c r="H90">
+        <v>-0.04867013869531385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2755852070997324</v>
+        <v>0.1880909472419744</v>
       </c>
       <c r="C91">
-        <v>-0.1055042472132078</v>
+        <v>-0.1859387903305125</v>
       </c>
       <c r="D91">
-        <v>0.09032530794100693</v>
+        <v>-0.03067857335308726</v>
       </c>
       <c r="E91">
-        <v>0.2300000557328959</v>
+        <v>0.06038128791710837</v>
       </c>
       <c r="F91">
-        <v>-0.1400268900127482</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.001177474710604237</v>
+      </c>
+      <c r="G91">
+        <v>0.06632701037433471</v>
+      </c>
+      <c r="H91">
+        <v>-0.1870954537247178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2006724838693327</v>
+        <v>0.2755947485995138</v>
       </c>
       <c r="C92">
-        <v>-0.102853959453523</v>
+        <v>0.1984060382557708</v>
       </c>
       <c r="D92">
-        <v>-0.3778684782112989</v>
+        <v>-0.0666494431713472</v>
       </c>
       <c r="E92">
-        <v>0.03059300242763374</v>
+        <v>-0.03869044178415183</v>
       </c>
       <c r="F92">
-        <v>-0.01805522160460915</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.05171020076589778</v>
+      </c>
+      <c r="G92">
+        <v>0.03352876787071447</v>
+      </c>
+      <c r="H92">
+        <v>-0.1279878388243541</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1397719673245653</v>
+        <v>0.2922488856275263</v>
       </c>
       <c r="C93">
-        <v>-0.1007580879634524</v>
+        <v>0.2629058026996336</v>
       </c>
       <c r="D93">
-        <v>-0.3854164150790528</v>
+        <v>-0.03432143908240293</v>
       </c>
       <c r="E93">
-        <v>-0.1295298231868288</v>
+        <v>-0.03646232279761112</v>
       </c>
       <c r="F93">
-        <v>-0.0499635126105108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.001615474798686853</v>
+      </c>
+      <c r="G93">
+        <v>0.03945558716163027</v>
+      </c>
+      <c r="H93">
+        <v>0.008432559990973577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.285374523868203</v>
+        <v>0.2405215688436054</v>
       </c>
       <c r="C94">
-        <v>-0.1371347996734971</v>
+        <v>-0.2351714541351692</v>
       </c>
       <c r="D94">
-        <v>0.05503259981505745</v>
+        <v>-0.01926239877303022</v>
       </c>
       <c r="E94">
-        <v>0.2764174087772908</v>
+        <v>0.07253262883629485</v>
       </c>
       <c r="F94">
-        <v>-0.02535903239027671</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.07240995492950471</v>
+      </c>
+      <c r="G94">
+        <v>0.05705527209895914</v>
+      </c>
+      <c r="H94">
+        <v>-0.4419367613667616</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05982998344339802</v>
+        <v>0.05169607102539601</v>
       </c>
       <c r="C95">
-        <v>-0.07558894752504375</v>
+        <v>-0.09036981991461202</v>
       </c>
       <c r="D95">
-        <v>0.03926274599826187</v>
+        <v>-0.01059907040782452</v>
       </c>
       <c r="E95">
-        <v>-0.01916643792338226</v>
+        <v>-0.02642545096357055</v>
       </c>
       <c r="F95">
-        <v>0.009046202053718323</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.06348615943474248</v>
+      </c>
+      <c r="G95">
+        <v>0.01313429166747735</v>
+      </c>
+      <c r="H95">
+        <v>0.06409356579260403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1734609652046001</v>
+        <v>0.1905226252671722</v>
       </c>
       <c r="C98">
-        <v>-0.0879593902577528</v>
+        <v>-0.07799300143048815</v>
       </c>
       <c r="D98">
-        <v>-0.0273401911334361</v>
+        <v>-0.02874753903739252</v>
       </c>
       <c r="E98">
-        <v>-0.1077510348188846</v>
+        <v>-0.007423661537379775</v>
       </c>
       <c r="F98">
-        <v>0.1160572153118636</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.08581452135380266</v>
+      </c>
+      <c r="G98">
+        <v>-0.1006038192299668</v>
+      </c>
+      <c r="H98">
+        <v>0.2954153295667408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004285696920215763</v>
+        <v>0.002854447638847104</v>
       </c>
       <c r="C101">
-        <v>0.009642460886760046</v>
+        <v>-0.01572198407251909</v>
       </c>
       <c r="D101">
-        <v>0.03605189971357477</v>
+        <v>0.007518589042696891</v>
       </c>
       <c r="E101">
-        <v>-0.04866437440010338</v>
+        <v>-0.0311033067194937</v>
       </c>
       <c r="F101">
-        <v>0.1801179073246297</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02772085624752476</v>
+      </c>
+      <c r="G101">
+        <v>-0.02797278859743713</v>
+      </c>
+      <c r="H101">
+        <v>-0.007351636143939161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1182597019819632</v>
+        <v>0.1054853475534855</v>
       </c>
       <c r="C102">
-        <v>-0.04060755906245244</v>
+        <v>-0.1101896406764422</v>
       </c>
       <c r="D102">
-        <v>0.03574420542335107</v>
+        <v>-0.003612774227815176</v>
       </c>
       <c r="E102">
-        <v>0.1084937210171495</v>
+        <v>0.04549995595537987</v>
       </c>
       <c r="F102">
-        <v>-0.0595527569693597</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.01326112505034642</v>
+      </c>
+      <c r="G102">
+        <v>0.01347348065342214</v>
+      </c>
+      <c r="H102">
+        <v>-0.06913627952644345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03995338326542981</v>
+        <v>0.0089041846058619</v>
       </c>
       <c r="C103">
-        <v>0.006529873898639749</v>
+        <v>-0.01175856179245003</v>
       </c>
       <c r="D103">
-        <v>0.0161911166012239</v>
+        <v>-0.0002598419537735628</v>
       </c>
       <c r="E103">
-        <v>0.02939342390546925</v>
+        <v>-0.0004374880555683665</v>
       </c>
       <c r="F103">
-        <v>0.006151125031107111</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01912292232029025</v>
+      </c>
+      <c r="G103">
+        <v>0.001463453153581436</v>
+      </c>
+      <c r="H103">
+        <v>-0.01074142221287437</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.08941718268311417</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.05273495288625041</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9810798978994854</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03811444981936714</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.02170420111845067</v>
+      </c>
+      <c r="G104">
+        <v>-0.08947695617550287</v>
+      </c>
+      <c r="H104">
+        <v>-0.0841273320502956</v>
       </c>
     </row>
   </sheetData>
